--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a75_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-601.5022445304209</v>
+        <v>-152.69155135874445</v>
       </c>
       <c r="C2">
-        <v>7.069853751</v>
+        <v>13.475688349</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>245</v>
+        <v>1210</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-608.5309886553532</v>
+        <v>-149.80697334593447</v>
       </c>
       <c r="C3">
-        <v>0.340241427</v>
+        <v>5.18013424</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>1210</v>
       </c>
       <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-620.2767067883783</v>
+        <v>-151.1044277329743</v>
       </c>
       <c r="C4">
-        <v>0.078884096</v>
+        <v>4.180101743</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>245</v>
+        <v>1654</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1715</v>
+      </c>
+      <c r="I4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-623.0162878029556</v>
+        <v>-150.7026611363619</v>
       </c>
       <c r="C5">
-        <v>0.075646583</v>
+        <v>1.907726787</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-600.2778595374714</v>
+        <v>-150.52128244649415</v>
       </c>
       <c r="C6">
-        <v>0.0646738</v>
+        <v>2.777242486</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>245</v>
+        <v>1210</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-603.1508915911172</v>
+        <v>-149.3056249465745</v>
       </c>
       <c r="C7">
-        <v>0.071731945</v>
+        <v>2.004086868</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-593.4398910548933</v>
+        <v>-148.6615197491766</v>
       </c>
       <c r="C8">
-        <v>0.061992934</v>
+        <v>2.726321562</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-607.7350938167094</v>
+        <v>-150.1825997287182</v>
       </c>
       <c r="C9">
-        <v>0.342222045</v>
+        <v>2.679151899</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>245</v>
+        <v>1432</v>
       </c>
       <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1470</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-613.066009577107</v>
+        <v>-151.08461007105797</v>
       </c>
       <c r="C10">
-        <v>0.073023286</v>
+        <v>2.93757749</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>245</v>
+        <v>1210</v>
       </c>
       <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-590.2012633227611</v>
+        <v>-146.922210513398</v>
       </c>
       <c r="C11">
-        <v>0.082254871</v>
+        <v>1.965707578</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>245</v>
+        <v>988</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>980</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.27165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.022062427751586913</v>
+      </c>
+      <c r="E2">
+        <v>228.34639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-613.066009577107</v>
+        <v>-155.52056055400422</v>
       </c>
       <c r="C3">
-        <v>3.708795984302528e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.25103460252111814</v>
+      </c>
+      <c r="E3">
+        <v>2.73248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-152.69250570496288</v>
+      </c>
+      <c r="C4">
+        <v>0.009391099665426558</v>
+      </c>
+      <c r="D4">
+        <v>0.3292168918156738</v>
+      </c>
+      <c r="E4">
+        <v>1.52819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-151.53601397139232</v>
+      </c>
+      <c r="C5">
+        <v>0.0033244805686752825</v>
+      </c>
+      <c r="D5">
+        <v>0.4629217845788574</v>
+      </c>
+      <c r="E5">
+        <v>0.76042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-151.30604862057297</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.8256553392956543</v>
+      </c>
+      <c r="E6">
+        <v>0.75104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-151.08461007105797</v>
+      </c>
+      <c r="C7">
+        <v>0.05284048210509336</v>
+      </c>
+      <c r="D7">
+        <v>0.7808210443214111</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +895,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +929,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.65727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02198794061291504</v>
+      </c>
+      <c r="E2">
+        <v>218.51635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-590.2012633227611</v>
+        <v>-150.66904858876433</v>
       </c>
       <c r="C3">
-        <v>1.9262384679008267e-14</v>
+        <v>0.005566102286224153</v>
       </c>
       <c r="D3">
+        <v>0.2685183009866943</v>
+      </c>
+      <c r="E3">
+        <v>3.35947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-147.8574353598221</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.4499755879960938</v>
+      </c>
+      <c r="E4">
+        <v>1.60596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-147.0044095726106</v>
+      </c>
+      <c r="C5">
+        <v>0.0026072787437041315</v>
+      </c>
+      <c r="D5">
+        <v>0.39482059874353026</v>
+      </c>
+      <c r="E5">
+        <v>0.49096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-146.922210513398</v>
+      </c>
+      <c r="C6">
+        <v>0.0025723077323003764</v>
+      </c>
+      <c r="D6">
+        <v>0.6780243080334473</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +1010,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1044,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.79404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0392047368762207</v>
+      </c>
+      <c r="E2">
+        <v>220.70464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-601.5022445304209</v>
+        <v>-155.541537539662</v>
       </c>
       <c r="C3">
-        <v>3.780096874296782e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.506262345149414</v>
+      </c>
+      <c r="E3">
+        <v>1.90806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-153.9668911845269</v>
+      </c>
+      <c r="C4">
+        <v>0.0549788842504092</v>
+      </c>
+      <c r="D4">
+        <v>0.5237415607949218</v>
+      </c>
+      <c r="E4">
+        <v>1.31132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-153.06329810682917</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.6636428093099365</v>
+      </c>
+      <c r="E5">
+        <v>0.63184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-152.69333491772116</v>
+      </c>
+      <c r="C6">
+        <v>0.0018253021147020905</v>
+      </c>
+      <c r="D6">
+        <v>0.8809899585540771</v>
+      </c>
+      <c r="E6">
+        <v>0.09014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-152.69155135874445</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.6980257658205566</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1142,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1176,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.9177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.035119870791137694</v>
+      </c>
+      <c r="E2">
+        <v>222.6832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-608.5309886553532</v>
+        <v>-154.0433189475891</v>
       </c>
       <c r="C3">
-        <v>9.341088608552757e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.20881733182727052</v>
+      </c>
+      <c r="E3">
+        <v>2.75432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-150.8509082622466</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.3389284627106934</v>
+      </c>
+      <c r="E4">
+        <v>1.71398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-150.3789170708639</v>
+      </c>
+      <c r="C5">
+        <v>0.005553787631849154</v>
+      </c>
+      <c r="D5">
+        <v>0.555385591586914</v>
+      </c>
+      <c r="E5">
+        <v>1.40035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-150.0212288020601</v>
+      </c>
+      <c r="C6">
+        <v>0.03319422566091018</v>
+      </c>
+      <c r="D6">
+        <v>1.3327302114327393</v>
+      </c>
+      <c r="E6">
+        <v>0.98855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-149.80697334593447</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>2.4680046158497313</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1274,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1308,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.87917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.025932480134277344</v>
+      </c>
+      <c r="E2">
+        <v>222.06669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-620.2767067883783</v>
+        <v>-153.16481072559182</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.21307555691943358</v>
+      </c>
+      <c r="E3">
+        <v>1.51409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-152.60153976015147</v>
+      </c>
+      <c r="C4">
+        <v>0.009694864999271137</v>
+      </c>
+      <c r="D4">
+        <v>0.28975321150671385</v>
+      </c>
+      <c r="E4">
+        <v>1.20977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-152.22373538654264</v>
+      </c>
+      <c r="C5">
+        <v>0.003964805308384463</v>
+      </c>
+      <c r="D5">
+        <v>0.4370415409871826</v>
+      </c>
+      <c r="E5">
+        <v>1.88867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-151.62366388392644</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.6461733702818604</v>
+      </c>
+      <c r="E6">
+        <v>0.63484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-151.47021267012434</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.8495758216252441</v>
+      </c>
+      <c r="E7">
+        <v>0.64287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-151.10470163655458</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>0.7067819574151611</v>
+      </c>
+      <c r="E8">
+        <v>0.04981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-151.1044277329743</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>0.5589207844262696</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1440,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1474,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.72744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.033398590701416014</v>
+      </c>
+      <c r="E2">
+        <v>219.63896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-623.0162878029556</v>
+        <v>-155.01281046545154</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.04912668311289505</v>
       </c>
       <c r="D3">
+        <v>0.33590666955419923</v>
+      </c>
+      <c r="E3">
+        <v>3.51178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-152.91115893756</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.36018615149829103</v>
+      </c>
+      <c r="E4">
+        <v>3.67241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-151.33742179699524</v>
+      </c>
+      <c r="C5">
+        <v>0.06191576197221107</v>
+      </c>
+      <c r="D5">
+        <v>0.5435916116905517</v>
+      </c>
+      <c r="E5">
+        <v>1.84243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-150.7026611363619</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.4194282296199951</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1555,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1589,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.12986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01046106286315918</v>
+      </c>
+      <c r="E2">
+        <v>226.07773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-600.2778595374714</v>
+        <v>-157.48118542160822</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.001880984047582688</v>
       </c>
       <c r="D3">
+        <v>0.10975628610229492</v>
+      </c>
+      <c r="E3">
+        <v>3.69474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-152.37413472726158</v>
+      </c>
+      <c r="C4">
+        <v>0.05236176081361082</v>
+      </c>
+      <c r="D4">
+        <v>0.5385646714543457</v>
+      </c>
+      <c r="E4">
+        <v>2.02591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-150.87371938190478</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.658667434640625</v>
+      </c>
+      <c r="E5">
+        <v>0.53908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-150.54908548620608</v>
+      </c>
+      <c r="C6">
+        <v>0.034186841249718276</v>
+      </c>
+      <c r="D6">
+        <v>0.6935941182662353</v>
+      </c>
+      <c r="E6">
+        <v>0.4785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-150.52128244649415</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.5800071709085693</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1687,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1721,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.78965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023702833541870118</v>
+      </c>
+      <c r="E2">
+        <v>236.63439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-603.1508915911172</v>
+        <v>-152.84773661818662</v>
       </c>
       <c r="C3">
-        <v>1.884882196255904e-14</v>
+        <v>0.00015575538128713028</v>
       </c>
       <c r="D3">
+        <v>0.26283587116723633</v>
+      </c>
+      <c r="E3">
+        <v>3.10196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-150.7319722817054</v>
+      </c>
+      <c r="C4">
+        <v>0.05193741053025585</v>
+      </c>
+      <c r="D4">
+        <v>0.31986473007055666</v>
+      </c>
+      <c r="E4">
+        <v>1.73331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-149.31562200245855</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.583748047512085</v>
+      </c>
+      <c r="E5">
+        <v>0.06487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-149.3056249465745</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.5958990947023926</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1802,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1836,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.5897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.036215444938598636</v>
+      </c>
+      <c r="E2">
+        <v>217.43514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-593.4398910548933</v>
+        <v>-151.191030597471</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.26545122208483884</v>
+      </c>
+      <c r="E3">
+        <v>2.41872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-149.55356916414627</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.8223041206525878</v>
+      </c>
+      <c r="E4">
+        <v>1.54896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-148.72952151599</v>
+      </c>
+      <c r="C5">
+        <v>0.04662408027034268</v>
+      </c>
+      <c r="D5">
+        <v>0.7120331496621094</v>
+      </c>
+      <c r="E5">
+        <v>0.64104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-148.6615197491766</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.6719165892095947</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1917,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1951,111 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.35684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.021933551478515625</v>
+      </c>
+      <c r="E2">
+        <v>213.70945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-607.7350938167094</v>
+        <v>-153.22680661112716</v>
       </c>
       <c r="C3">
-        <v>1.870664354885598e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.24220789023168945</v>
+      </c>
+      <c r="E3">
+        <v>2.55838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-150.86328172130862</v>
+      </c>
+      <c r="C4">
+        <v>0.02352971223162435</v>
+      </c>
+      <c r="D4">
+        <v>0.3343985113873291</v>
+      </c>
+      <c r="E4">
+        <v>1.41335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-150.43457498750857</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.17764364486120604</v>
+      </c>
+      <c r="E5">
+        <v>1.03027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-150.40367538207448</v>
+      </c>
+      <c r="C6">
+        <v>0.020544448369059196</v>
+      </c>
+      <c r="D6">
+        <v>0.27516544994018555</v>
+      </c>
+      <c r="E6">
+        <v>1.01797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-150.20944449892178</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.6047261309281006</v>
+      </c>
+      <c r="E7">
+        <v>0.53376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-150.1825997287182</v>
+      </c>
+      <c r="C8">
+        <v>0.04955575662081342</v>
+      </c>
+      <c r="D8">
+        <v>0.7068574406750489</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
